--- a/output/wind_ts_data.xlsx
+++ b/output/wind_ts_data.xlsx
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
+    <t>wind_power</t>
+  </si>
+  <si>
     <t>timestep</t>
   </si>
   <si>
     <t>plant_id</t>
-  </si>
-  <si>
-    <t>wind_power</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,1058 +404,4226 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
+        <v>43.25625000000001</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>154</v>
-      </c>
       <c r="C2">
-        <v>42.84</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
+        <v>42.978750000000005</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>154</v>
-      </c>
       <c r="C3">
-        <v>41.73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
+        <v>42.70125</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>154</v>
-      </c>
       <c r="C4">
-        <v>43.59</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
+        <v>42.42375</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>154</v>
-      </c>
       <c r="C5">
-        <v>43.440000000000005</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>41.77460318874142</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>154</v>
-      </c>
       <c r="C6">
-        <v>41.129999999999995</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
+        <v>41.49955019150262</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>154</v>
-      </c>
       <c r="C7">
-        <v>29.58</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
+        <v>41.592473501380596</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>154</v>
-      </c>
       <c r="C8">
-        <v>18.66</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
+        <v>42.05337311837534</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>154</v>
-      </c>
       <c r="C9">
-        <v>14.19</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
+        <v>43.141162931556636</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>154</v>
-      </c>
       <c r="C10">
-        <v>14.669999999999998</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
+        <v>43.60885870035477</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>154</v>
-      </c>
       <c r="C11">
-        <v>9.209999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
+        <v>43.82384788439907</v>
+      </c>
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>154</v>
-      </c>
       <c r="C12">
-        <v>8.219999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
+        <v>43.78613048368955</v>
+      </c>
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>154</v>
-      </c>
       <c r="C13">
-        <v>18.27</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
+        <v>43.768290479499655</v>
+      </c>
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>154</v>
-      </c>
       <c r="C14">
-        <v>6.119999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
+        <v>43.730555941626136</v>
+      </c>
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>154</v>
-      </c>
       <c r="C15">
-        <v>0.48</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
+        <v>43.421132731063246</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>154</v>
-      </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
+        <v>42.84002084781098</v>
+      </c>
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>154</v>
-      </c>
       <c r="C17">
-        <v>0.78</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
+        <v>43.209650093808634</v>
+      </c>
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>154</v>
-      </c>
       <c r="C18">
-        <v>11.37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
+        <v>42.61546435272045</v>
+      </c>
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>154</v>
-      </c>
       <c r="C19">
-        <v>14.069999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
+        <v>40.832907129455904</v>
+      </c>
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>154</v>
-      </c>
       <c r="C20">
-        <v>7.199999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
+        <v>37.86197842401501</v>
+      </c>
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>154</v>
-      </c>
       <c r="C21">
-        <v>7.199999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
+        <v>33.821208749525844</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>154</v>
-      </c>
       <c r="C22">
-        <v>8.219999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
+        <v>30.94137564799595</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>154</v>
-      </c>
       <c r="C23">
-        <v>1.95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
+        <v>28.140083449235046</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>154</v>
-      </c>
       <c r="C24">
-        <v>0.39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
+        <v>25.417332153243137</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>154</v>
-      </c>
       <c r="C25">
-        <v>0.03</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1</v>
+        <v>21.812537083413595</v>
       </c>
       <c r="B26">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>238.53</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2</v>
+        <v>19.195607782700822</v>
       </c>
       <c r="B27">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>238.32</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3</v>
+        <v>17.351535349643612</v>
       </c>
       <c r="B28">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>232.07999999999998</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4</v>
+        <v>16.280319784241954</v>
       </c>
       <c r="B29">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>230.18999999999997</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5</v>
+        <v>15.203314763231198</v>
       </c>
       <c r="B30">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>225.66</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>6</v>
+        <v>14.1325069637883</v>
       </c>
       <c r="B31">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>215.82</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>7</v>
+        <v>13.654596100278551</v>
       </c>
       <c r="B32">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>196.58999999999997</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>8</v>
+        <v>13.769582172701949</v>
       </c>
       <c r="B33">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>178.38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>9</v>
+        <v>15.262487883683358</v>
       </c>
       <c r="B34">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>173.73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>10</v>
+        <v>15.38888529886914</v>
       </c>
       <c r="B35">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>140.04</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>11</v>
+        <v>14.733198707592887</v>
       </c>
       <c r="B36">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>90.41999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>12</v>
+        <v>13.295428109854601</v>
       </c>
       <c r="B37">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>33.21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>13</v>
+        <v>10.613596928982725</v>
       </c>
       <c r="B38">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>23.67</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>14</v>
+        <v>9.326671785028791</v>
       </c>
       <c r="B39">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>32.37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>15</v>
+        <v>8.566537428023032</v>
       </c>
       <c r="B40">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>6.69</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>16</v>
+        <v>8.333193857965451</v>
       </c>
       <c r="B41">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>7.38</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>17</v>
+        <v>7.356257812499999</v>
       </c>
       <c r="B42">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>3.24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>18</v>
+        <v>7.144335937499999</v>
       </c>
       <c r="B43">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>72.96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>19</v>
+        <v>8.1140390625</v>
       </c>
       <c r="B44">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>112.55999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>20</v>
+        <v>10.2653671875</v>
       </c>
       <c r="B45">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>170.51999999999998</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>21</v>
+        <v>17.098279283639883</v>
       </c>
       <c r="B46">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>190.83</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>22</v>
+        <v>20.060742981606975</v>
       </c>
       <c r="B47">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>215.76000000000002</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>23</v>
+        <v>19.751231848983544</v>
       </c>
       <c r="B48">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>220.47</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>24</v>
+        <v>16.169745885769604</v>
       </c>
       <c r="B49">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>218.73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1</v>
+        <v>9.423277447268793</v>
       </c>
       <c r="B50">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="C50">
-        <v>144.24</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2</v>
+        <v>6.742260681449432</v>
       </c>
       <c r="B51">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="C51">
-        <v>190.47</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>3</v>
+        <v>4.779491617090319</v>
       </c>
       <c r="B52">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="C52">
-        <v>146.19</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>4</v>
+        <v>3.534970254191454</v>
       </c>
       <c r="B53">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>129.81</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>5</v>
+        <v>1.1072000000000002</v>
       </c>
       <c r="B54">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>122.36999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>6</v>
+        <v>0.5056</v>
       </c>
       <c r="B55">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>132.06</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>7</v>
+        <v>0.17920000000000003</v>
       </c>
       <c r="B56">
-        <v>156</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>113.19</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>8</v>
+        <v>0.12800000000000003</v>
       </c>
       <c r="B57">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>59.79</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>9</v>
+        <v>0.0</v>
       </c>
       <c r="B58">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>33.18</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>10</v>
+        <v>0.0</v>
       </c>
       <c r="B59">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>1.08</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11</v>
+        <v>0.0</v>
       </c>
       <c r="B60">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>0.72</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>12</v>
+        <v>0.0</v>
       </c>
       <c r="B61">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>16.86</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>13</v>
+        <v>0.1895327102803739</v>
       </c>
       <c r="B62">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>27.45</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>14</v>
+        <v>0.2653457943925234</v>
       </c>
       <c r="B63">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>30.9</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>15</v>
+        <v>0.8179065420560749</v>
       </c>
       <c r="B64">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="C64">
-        <v>11.91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>16</v>
+        <v>1.8472149532710285</v>
       </c>
       <c r="B65">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>26.31</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>17</v>
+        <v>8.10148429035753</v>
       </c>
       <c r="B66">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>27.689999999999998</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>18</v>
+        <v>11.000444203683639</v>
       </c>
       <c r="B67">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>26.82</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>19</v>
+        <v>12.819479956663052</v>
       </c>
       <c r="B68">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>27.12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>20</v>
+        <v>13.558591549295771</v>
       </c>
       <c r="B69">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>24.33</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>21</v>
+        <v>14.270824351878822</v>
       </c>
       <c r="B70">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>51.87</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>22</v>
+        <v>15.008546460821439</v>
       </c>
       <c r="B71">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>98.07</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>23</v>
+        <v>14.438861054471309</v>
       </c>
       <c r="B72">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C72">
-        <v>77.00999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>24</v>
+        <v>12.561768132828428</v>
       </c>
       <c r="B73">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <v>42.33</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>1</v>
+        <v>8.734481154025126</v>
       </c>
       <c r="B74">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="C74">
-        <v>213.96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>2</v>
+        <v>7.1999999999999975</v>
       </c>
       <c r="B75">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C75">
-        <v>213.83999999999997</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>3</v>
+        <v>6.432759422987434</v>
       </c>
       <c r="B76">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="C76">
-        <v>212.51999999999998</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>4</v>
+        <v>6.432759422987434</v>
       </c>
       <c r="B77">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="C77">
-        <v>213.21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>5</v>
+        <v>7.074718526100306</v>
       </c>
       <c r="B78">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>210.42</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>6</v>
+        <v>7.074718526100306</v>
       </c>
       <c r="B79">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="C79">
-        <v>204.75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>7</v>
+        <v>7.199999999999998</v>
       </c>
       <c r="B80">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="C80">
-        <v>184.41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>8</v>
+        <v>7.450562947799385</v>
       </c>
       <c r="B81">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="C81">
-        <v>155.31</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>9</v>
+        <v>8.814674191893278</v>
       </c>
       <c r="B82">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="C82">
-        <v>127.98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>10</v>
+        <v>9.101467419189328</v>
       </c>
       <c r="B83">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="C83">
-        <v>82.25999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>11</v>
+        <v>8.363396613648025</v>
       </c>
       <c r="B84">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C84">
-        <v>27.9</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>12</v>
+        <v>6.600461775269369</v>
       </c>
       <c r="B85">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="C85">
-        <v>1.89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>13</v>
+        <v>3.303766617429837</v>
       </c>
       <c r="B86">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C86">
-        <v>1.14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>14</v>
+        <v>2.0997784342688326</v>
       </c>
       <c r="B87">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="C87">
-        <v>0.33</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>15</v>
+        <v>1.3480059084194977</v>
       </c>
       <c r="B88">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C88">
-        <v>0.0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>16</v>
+        <v>1.0484490398818316</v>
       </c>
       <c r="B89">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C89">
-        <v>0.0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>17</v>
+        <v>0.7041666666666666</v>
       </c>
       <c r="B90">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="C90">
-        <v>0.27</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>18</v>
+        <v>0.4225</v>
       </c>
       <c r="B91">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C91">
-        <v>82.89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>19</v>
+        <v>0.24916666666666665</v>
       </c>
       <c r="B92">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C92">
-        <v>81.86999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>20</v>
+        <v>0.18416666666666667</v>
       </c>
       <c r="B93">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C93">
-        <v>103.68</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>21</v>
+        <v>0.08249999999999999</v>
       </c>
       <c r="B94">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C94">
-        <v>123.50999999999999</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>22</v>
+        <v>0.0375</v>
       </c>
       <c r="B95">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C95">
-        <v>112.98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>23</v>
+        <v>0.0</v>
       </c>
       <c r="B96">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C96">
-        <v>168.39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
+        <v>0.0</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>238.60875</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>238.55624999999998</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>238.50374999999997</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>238.45125</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>239.15514135530614</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>239.1024747833499</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>238.29366671402187</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>236.72871714732204</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>233.87205132751922</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>232.31569777376558</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>231.3018232231232</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>230.830427675592</v>
+      </c>
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>231.23024128817542</v>
+      </c>
+      <c r="B110">
+        <v>13</v>
+      </c>
+      <c r="C110">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>230.7570629404855</v>
+      </c>
+      <c r="B111">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>229.95341082615505</v>
+      </c>
+      <c r="B112">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>228.81928494518405</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>228.02946949115815</v>
+      </c>
+      <c r="B114">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>226.893628560476</v>
+      </c>
+      <c r="B115">
+        <v>18</v>
+      </c>
+      <c r="C115">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>225.0920795346589</v>
+      </c>
+      <c r="B116">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>222.62482241370688</v>
+      </c>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>220.71034644211116</v>
+      </c>
+      <c r="B118">
+        <v>21</v>
+      </c>
+      <c r="C118">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>218.23689442512975</v>
+      </c>
+      <c r="B119">
+        <v>22</v>
+      </c>
+      <c r="C119">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>214.5832739915093</v>
+      </c>
+      <c r="B120">
+        <v>23</v>
+      </c>
+      <c r="C120">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>209.74948514124986</v>
+      </c>
+      <c r="B121">
         <v>24</v>
       </c>
-      <c r="B97">
-        <v>157</v>
-      </c>
-      <c r="C97">
-        <v>170.51999999999998</v>
+      <c r="C121">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>203.6691587555759</v>
+      </c>
+      <c r="B122">
+        <v>25</v>
+      </c>
+      <c r="C122">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>198.86477467688437</v>
+      </c>
+      <c r="B123">
+        <v>26</v>
+      </c>
+      <c r="C123">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>194.18780796065423</v>
+      </c>
+      <c r="B124">
+        <v>27</v>
+      </c>
+      <c r="C124">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>189.63825860688547</v>
+      </c>
+      <c r="B125">
+        <v>28</v>
+      </c>
+      <c r="C125">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>183.46542732194922</v>
+      </c>
+      <c r="B126">
+        <v>29</v>
+      </c>
+      <c r="C126">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>178.9557788421491</v>
+      </c>
+      <c r="B127">
+        <v>30</v>
+      </c>
+      <c r="C127">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>176.12517576009995</v>
+      </c>
+      <c r="B128">
+        <v>31</v>
+      </c>
+      <c r="C128">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>174.97361807580177</v>
+      </c>
+      <c r="B129">
+        <v>32</v>
+      </c>
+      <c r="C129">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>179.21842791005292</v>
+      </c>
+      <c r="B130">
+        <v>33</v>
+      </c>
+      <c r="C130">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>178.0311197089947</v>
+      </c>
+      <c r="B131">
+        <v>34</v>
+      </c>
+      <c r="C131">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>173.1363458994709</v>
+      </c>
+      <c r="B132">
+        <v>35</v>
+      </c>
+      <c r="C132">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>164.5341064814815</v>
+      </c>
+      <c r="B133">
+        <v>36</v>
+      </c>
+      <c r="C133">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>154.8759546899193</v>
+      </c>
+      <c r="B134">
+        <v>37</v>
+      </c>
+      <c r="C134">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>146.33196642490424</v>
+      </c>
+      <c r="B135">
+        <v>38</v>
+      </c>
+      <c r="C135">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>135.76800586749246</v>
+      </c>
+      <c r="B136">
+        <v>39</v>
+      </c>
+      <c r="C136">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>123.18407301768396</v>
+      </c>
+      <c r="B137">
+        <v>40</v>
+      </c>
+      <c r="C137">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>110.18362378976485</v>
+      </c>
+      <c r="B138">
+        <v>41</v>
+      </c>
+      <c r="C138">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>97.64708160442599</v>
+      </c>
+      <c r="B139">
+        <v>42</v>
+      </c>
+      <c r="C139">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>84.15172890733056</v>
+      </c>
+      <c r="B140">
+        <v>43</v>
+      </c>
+      <c r="C140">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>69.69756569847854</v>
+      </c>
+      <c r="B141">
+        <v>44</v>
+      </c>
+      <c r="C141">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>46.34774246050742</v>
+      </c>
+      <c r="B142">
+        <v>45</v>
+      </c>
+      <c r="C142">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>34.22108472953566</v>
+      </c>
+      <c r="B143">
+        <v>46</v>
+      </c>
+      <c r="C143">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>27.14667113451412</v>
+      </c>
+      <c r="B144">
+        <v>47</v>
+      </c>
+      <c r="C144">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>25.124501675442794</v>
+      </c>
+      <c r="B145">
+        <v>48</v>
+      </c>
+      <c r="C145">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>24.8535</v>
+      </c>
+      <c r="B146">
+        <v>49</v>
+      </c>
+      <c r="C146">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>22.678049132947976</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+      <c r="C147">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>22.582274566473988</v>
+      </c>
+      <c r="B148">
+        <v>51</v>
+      </c>
+      <c r="C148">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>24.566176300578032</v>
+      </c>
+      <c r="B149">
+        <v>52</v>
+      </c>
+      <c r="C149">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>33.56344376168849</v>
+      </c>
+      <c r="B150">
+        <v>53</v>
+      </c>
+      <c r="C150">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>36.07140528987443</v>
+      </c>
+      <c r="B151">
+        <v>54</v>
+      </c>
+      <c r="C151">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>33.62398076409297</v>
+      </c>
+      <c r="B152">
+        <v>55</v>
+      </c>
+      <c r="C152">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>26.221170184344107</v>
+      </c>
+      <c r="B153">
+        <v>56</v>
+      </c>
+      <c r="C153">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>10.933113030416822</v>
+      </c>
+      <c r="B154">
+        <v>57</v>
+      </c>
+      <c r="C154">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>6.6322193015396165</v>
+      </c>
+      <c r="B155">
+        <v>58</v>
+      </c>
+      <c r="C155">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>4.539553135561397</v>
+      </c>
+      <c r="B156">
+        <v>59</v>
+      </c>
+      <c r="C156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>4.655114532482163</v>
+      </c>
+      <c r="B157">
+        <v>60</v>
+      </c>
+      <c r="C157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>7.75573879358052</v>
+      </c>
+      <c r="B158">
+        <v>61</v>
+      </c>
+      <c r="C158">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>7.94360819037078</v>
+      </c>
+      <c r="B159">
+        <v>62</v>
+      </c>
+      <c r="C159">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>7.47393469839513</v>
+      </c>
+      <c r="B160">
+        <v>63</v>
+      </c>
+      <c r="C160">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>6.346718317653569</v>
+      </c>
+      <c r="B161">
+        <v>64</v>
+      </c>
+      <c r="C161">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>1.24495490078172</v>
+      </c>
+      <c r="B162">
+        <v>65</v>
+      </c>
+      <c r="C162">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>0.9760914010823812</v>
+      </c>
+      <c r="B163">
+        <v>66</v>
+      </c>
+      <c r="C163">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>3.1055682501503306</v>
+      </c>
+      <c r="B164">
+        <v>67</v>
+      </c>
+      <c r="C164">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>7.633385447985568</v>
+      </c>
+      <c r="B165">
+        <v>68</v>
+      </c>
+      <c r="C165">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>49.3622718404509</v>
+      </c>
+      <c r="B166">
+        <v>69</v>
+      </c>
+      <c r="C166">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>67.74066334272707</v>
+      </c>
+      <c r="B167">
+        <v>70</v>
+      </c>
+      <c r="C167">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>82.1491957511381</v>
+      </c>
+      <c r="B168">
+        <v>71</v>
+      </c>
+      <c r="C168">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>92.58786906568393</v>
+      </c>
+      <c r="B169">
+        <v>72</v>
+      </c>
+      <c r="C169">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>95.7575865221366</v>
+      </c>
+      <c r="B170">
+        <v>73</v>
+      </c>
+      <c r="C170">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>105.45976753297636</v>
+      </c>
+      <c r="B171">
+        <v>74</v>
+      </c>
+      <c r="C171">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>117.41109050541988</v>
+      </c>
+      <c r="B172">
+        <v>75</v>
+      </c>
+      <c r="C172">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>131.61155543946714</v>
+      </c>
+      <c r="B173">
+        <v>76</v>
+      </c>
+      <c r="C173">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>153.00792726779292</v>
+      </c>
+      <c r="B174">
+        <v>77</v>
+      </c>
+      <c r="C174">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>167.90919329669583</v>
+      </c>
+      <c r="B175">
+        <v>78</v>
+      </c>
+      <c r="C175">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>177.97063301445147</v>
+      </c>
+      <c r="B176">
+        <v>79</v>
+      </c>
+      <c r="C176">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>183.1922464210598</v>
+      </c>
+      <c r="B177">
+        <v>80</v>
+      </c>
+      <c r="C177">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>182.66097155283882</v>
+      </c>
+      <c r="B178">
+        <v>81</v>
+      </c>
+      <c r="C178">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>187.72315211002703</v>
+      </c>
+      <c r="B179">
+        <v>82</v>
+      </c>
+      <c r="C179">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>193.3610902785941</v>
+      </c>
+      <c r="B180">
+        <v>83</v>
+      </c>
+      <c r="C180">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>199.57478605854004</v>
+      </c>
+      <c r="B181">
+        <v>84</v>
+      </c>
+      <c r="C181">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>208.8578959586367</v>
+      </c>
+      <c r="B182">
+        <v>85</v>
+      </c>
+      <c r="C182">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>215.16427139390103</v>
+      </c>
+      <c r="B183">
+        <v>86</v>
+      </c>
+      <c r="C183">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>218.91318771763218</v>
+      </c>
+      <c r="B184">
+        <v>87</v>
+      </c>
+      <c r="C184">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>220.1046449298301</v>
+      </c>
+      <c r="B185">
+        <v>88</v>
+      </c>
+      <c r="C185">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>219.50647643272956</v>
+      </c>
+      <c r="B186">
+        <v>89</v>
+      </c>
+      <c r="C186">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>220.68829830820968</v>
+      </c>
+      <c r="B187">
+        <v>90</v>
+      </c>
+      <c r="C187">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>221.06091093774003</v>
+      </c>
+      <c r="B188">
+        <v>91</v>
+      </c>
+      <c r="C188">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>220.6243143213206</v>
+      </c>
+      <c r="B189">
+        <v>92</v>
+      </c>
+      <c r="C189">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>219.3825</v>
+      </c>
+      <c r="B190">
+        <v>93</v>
+      </c>
+      <c r="C190">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>218.9475</v>
+      </c>
+      <c r="B191">
+        <v>94</v>
+      </c>
+      <c r="C191">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>218.5125</v>
+      </c>
+      <c r="B192">
+        <v>95</v>
+      </c>
+      <c r="C192">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>218.0775</v>
+      </c>
+      <c r="B193">
+        <v>96</v>
+      </c>
+      <c r="C193">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>126.90375000000002</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>138.46125</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>150.01875</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>161.57625000000002</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>184.06717802197804</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>196.35453626373624</v>
+      </c>
+      <c r="B199">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>196.6136791208791</v>
+      </c>
+      <c r="B200">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>184.84460659340658</v>
+      </c>
+      <c r="B201">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>159.0018610011525</v>
+      </c>
+      <c r="B202">
+        <v>9</v>
+      </c>
+      <c r="C202">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>148.18979305506838</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>140.78396602695793</v>
+      </c>
+      <c r="B204">
+        <v>11</v>
+      </c>
+      <c r="C204">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>136.78437991682117</v>
+      </c>
+      <c r="B205">
+        <v>12</v>
+      </c>
+      <c r="C205">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>134.79211032823508</v>
+      </c>
+      <c r="B206">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>130.73206221000174</v>
+      </c>
+      <c r="B207">
+        <v>14</v>
+      </c>
+      <c r="C207">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>127.7799759408833</v>
+      </c>
+      <c r="B208">
+        <v>15</v>
+      </c>
+      <c r="C208">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>125.93585152087985</v>
+      </c>
+      <c r="B209">
+        <v>16</v>
+      </c>
+      <c r="C209">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>123.00759328976298</v>
+      </c>
+      <c r="B210">
+        <v>17</v>
+      </c>
+      <c r="C210">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>121.17958015841941</v>
+      </c>
+      <c r="B211">
+        <v>18</v>
+      </c>
+      <c r="C211">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>121.4559934343282</v>
+      </c>
+      <c r="B212">
+        <v>19</v>
+      </c>
+      <c r="C212">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>123.83683311748938</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+      <c r="C213">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>131.99447875321033</v>
+      </c>
+      <c r="B214">
+        <v>21</v>
+      </c>
+      <c r="C214">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>134.4842861312164</v>
+      </c>
+      <c r="B215">
+        <v>22</v>
+      </c>
+      <c r="C215">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>133.30490368900303</v>
+      </c>
+      <c r="B216">
+        <v>23</v>
+      </c>
+      <c r="C216">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>128.45633142657013</v>
+      </c>
+      <c r="B217">
+        <v>24</v>
+      </c>
+      <c r="C217">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>125.03415044948854</v>
+      </c>
+      <c r="B218">
+        <v>25</v>
+      </c>
+      <c r="C218">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>120.12962732063512</v>
+      </c>
+      <c r="B219">
+        <v>26</v>
+      </c>
+      <c r="C219">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>110.7377384355733</v>
+      </c>
+      <c r="B220">
+        <v>27</v>
+      </c>
+      <c r="C220">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>96.85848379430304</v>
+      </c>
+      <c r="B221">
+        <v>28</v>
+      </c>
+      <c r="C221">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>75.58177585080477</v>
+      </c>
+      <c r="B222">
+        <v>29</v>
+      </c>
+      <c r="C222">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>62.93983251173012</v>
+      </c>
+      <c r="B223">
+        <v>30</v>
+      </c>
+      <c r="C223">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>53.46902833046266</v>
+      </c>
+      <c r="B224">
+        <v>31</v>
+      </c>
+      <c r="C224">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>47.169363307002435</v>
+      </c>
+      <c r="B225">
+        <v>32</v>
+      </c>
+      <c r="C225">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>44.07023889209463</v>
+      </c>
+      <c r="B226">
+        <v>33</v>
+      </c>
+      <c r="C226">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>37.277241777264855</v>
+      </c>
+      <c r="B227">
+        <v>34</v>
+      </c>
+      <c r="C227">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>29.783501442585113</v>
+      </c>
+      <c r="B228">
+        <v>35</v>
+      </c>
+      <c r="C228">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>21.589017888055395</v>
+      </c>
+      <c r="B229">
+        <v>36</v>
+      </c>
+      <c r="C229">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>2.8067161961367013</v>
+      </c>
+      <c r="B230">
+        <v>37</v>
+      </c>
+      <c r="C230">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>1.08962852897474</v>
+      </c>
+      <c r="B231">
+        <v>38</v>
+      </c>
+      <c r="C231">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>0.22145616641901933</v>
+      </c>
+      <c r="B232">
+        <v>39</v>
+      </c>
+      <c r="C232">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>0.20219910846953937</v>
+      </c>
+      <c r="B233">
+        <v>40</v>
+      </c>
+      <c r="C233">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>0.2212398921832884</v>
+      </c>
+      <c r="B234">
+        <v>41</v>
+      </c>
+      <c r="C234">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>0.1979514824797844</v>
+      </c>
+      <c r="B235">
+        <v>42</v>
+      </c>
+      <c r="C235">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>0.708355795148248</v>
+      </c>
+      <c r="B236">
+        <v>43</v>
+      </c>
+      <c r="C236">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>1.7524528301886793</v>
+      </c>
+      <c r="B237">
+        <v>44</v>
+      </c>
+      <c r="C237">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>11.271287404314544</v>
+      </c>
+      <c r="B238">
+        <v>45</v>
+      </c>
+      <c r="C238">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>15.479443284620737</v>
+      </c>
+      <c r="B239">
+        <v>46</v>
+      </c>
+      <c r="C239">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>18.964077940153096</v>
+      </c>
+      <c r="B240">
+        <v>47</v>
+      </c>
+      <c r="C240">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>21.72519137091162</v>
+      </c>
+      <c r="B241">
+        <v>48</v>
+      </c>
+      <c r="C241">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>24.26778452414572</v>
+      </c>
+      <c r="B242">
+        <v>49</v>
+      </c>
+      <c r="C242">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>27.004257271957076</v>
+      </c>
+      <c r="B243">
+        <v>50</v>
+      </c>
+      <c r="C243">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>28.81823637390568</v>
+      </c>
+      <c r="B244">
+        <v>51</v>
+      </c>
+      <c r="C244">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>29.70972182999153</v>
+      </c>
+      <c r="B245">
+        <v>52</v>
+      </c>
+      <c r="C245">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>32.56213294180459</v>
+      </c>
+      <c r="B246">
+        <v>53</v>
+      </c>
+      <c r="C246">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>33.510744794447405</v>
+      </c>
+      <c r="B247">
+        <v>54</v>
+      </c>
+      <c r="C247">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>31.374305926321405</v>
+      </c>
+      <c r="B248">
+        <v>55</v>
+      </c>
+      <c r="C248">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>26.15281633742659</v>
+      </c>
+      <c r="B249">
+        <v>56</v>
+      </c>
+      <c r="C249">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>14.092620657495923</v>
+      </c>
+      <c r="B250">
+        <v>57</v>
+      </c>
+      <c r="C250">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>10.577101888552113</v>
+      </c>
+      <c r="B251">
+        <v>58</v>
+      </c>
+      <c r="C251">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>10.152240615528097</v>
+      </c>
+      <c r="B252">
+        <v>59</v>
+      </c>
+      <c r="C252">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>12.818036838423877</v>
+      </c>
+      <c r="B253">
+        <v>60</v>
+      </c>
+      <c r="C253">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>22.28875113947128</v>
+      </c>
+      <c r="B254">
+        <v>61</v>
+      </c>
+      <c r="C254">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>26.126125797629896</v>
+      </c>
+      <c r="B255">
+        <v>62</v>
+      </c>
+      <c r="C255">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>28.228687329079303</v>
+      </c>
+      <c r="B256">
+        <v>63</v>
+      </c>
+      <c r="C256">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>28.596435733819504</v>
+      </c>
+      <c r="B257">
+        <v>64</v>
+      </c>
+      <c r="C257">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>27.451325762758245</v>
+      </c>
+      <c r="B258">
+        <v>65</v>
+      </c>
+      <c r="C258">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>27.799865918730333</v>
+      </c>
+      <c r="B259">
+        <v>66</v>
+      </c>
+      <c r="C259">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>27.864270077986045</v>
+      </c>
+      <c r="B260">
+        <v>67</v>
+      </c>
+      <c r="C260">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>27.64453824052538</v>
+      </c>
+      <c r="B261">
+        <v>68</v>
+      </c>
+      <c r="C261">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>26.999023779724652</v>
+      </c>
+      <c r="B262">
+        <v>69</v>
+      </c>
+      <c r="C262">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>26.78270337922403</v>
+      </c>
+      <c r="B263">
+        <v>70</v>
+      </c>
+      <c r="C263">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>26.71183979974969</v>
+      </c>
+      <c r="B264">
+        <v>71</v>
+      </c>
+      <c r="C264">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>26.786433041301624</v>
+      </c>
+      <c r="B265">
+        <v>72</v>
+      </c>
+      <c r="C265">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>27.397705147987097</v>
+      </c>
+      <c r="B266">
+        <v>73</v>
+      </c>
+      <c r="C266">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>27.47378875017534</v>
+      </c>
+      <c r="B267">
+        <v>74</v>
+      </c>
+      <c r="C267">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>27.15804180109413</v>
+      </c>
+      <c r="B268">
+        <v>75</v>
+      </c>
+      <c r="C268">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>26.45046430074344</v>
+      </c>
+      <c r="B269">
+        <v>76</v>
+      </c>
+      <c r="C269">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>21.955075343379114</v>
+      </c>
+      <c r="B270">
+        <v>77</v>
+      </c>
+      <c r="C270">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>21.35161088145086</v>
+      </c>
+      <c r="B271">
+        <v>78</v>
+      </c>
+      <c r="C271">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>24.02826776903587</v>
+      </c>
+      <c r="B272">
+        <v>79</v>
+      </c>
+      <c r="C272">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>29.98504600613415</v>
+      </c>
+      <c r="B273">
+        <v>80</v>
+      </c>
+      <c r="C273">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>39.75479867164798</v>
+      </c>
+      <c r="B274">
+        <v>81</v>
+      </c>
+      <c r="C274">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>46.34351598173515</v>
+      </c>
+      <c r="B275">
+        <v>82</v>
+      </c>
+      <c r="C275">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>55.16435865504358</v>
+      </c>
+      <c r="B276">
+        <v>83</v>
+      </c>
+      <c r="C276">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>66.21732669157325</v>
+      </c>
+      <c r="B277">
+        <v>84</v>
+      </c>
+      <c r="C277">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>88.31632120451692</v>
+      </c>
+      <c r="B278">
+        <v>85</v>
+      </c>
+      <c r="C278">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>100.94934504391469</v>
+      </c>
+      <c r="B279">
+        <v>86</v>
+      </c>
+      <c r="C279">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>104.38651191969888</v>
+      </c>
+      <c r="B280">
+        <v>87</v>
+      </c>
+      <c r="C280">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>98.6278218318695</v>
+      </c>
+      <c r="B281">
+        <v>88</v>
+      </c>
+      <c r="C281">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>86.82703017627726</v>
+      </c>
+      <c r="B282">
+        <v>89</v>
+      </c>
+      <c r="C282">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>81.44300268897518</v>
+      </c>
+      <c r="B283">
+        <v>90</v>
+      </c>
+      <c r="C283">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>74.31798625634896</v>
+      </c>
+      <c r="B284">
+        <v>91</v>
+      </c>
+      <c r="C284">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>65.45198087839856</v>
+      </c>
+      <c r="B285">
+        <v>92</v>
+      </c>
+      <c r="C285">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>55.334999999999994</v>
+      </c>
+      <c r="B286">
+        <v>93</v>
+      </c>
+      <c r="C286">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>46.665</v>
+      </c>
+      <c r="B287">
+        <v>94</v>
+      </c>
+      <c r="C287">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>37.995</v>
+      </c>
+      <c r="B288">
+        <v>95</v>
+      </c>
+      <c r="C288">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>29.325000000000003</v>
+      </c>
+      <c r="B289">
+        <v>96</v>
+      </c>
+      <c r="C289">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>214.00500000000008</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>213.97500000000008</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>213.94500000000005</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>213.91500000000005</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>214.03513688052783</v>
+      </c>
+      <c r="B294">
+        <v>5</v>
+      </c>
+      <c r="C294">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>214.0051158219851</v>
+      </c>
+      <c r="B295">
+        <v>6</v>
+      </c>
+      <c r="C295">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>213.82498947072858</v>
+      </c>
+      <c r="B296">
+        <v>7</v>
+      </c>
+      <c r="C296">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>213.49475782675833</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
+      </c>
+      <c r="C297">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>212.76346216887856</v>
+      </c>
+      <c r="B298">
+        <v>9</v>
+      </c>
+      <c r="C298">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>212.43385184793527</v>
+      </c>
+      <c r="B299">
+        <v>10</v>
+      </c>
+      <c r="C299">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>212.3551948395284</v>
+      </c>
+      <c r="B300">
+        <v>11</v>
+      </c>
+      <c r="C300">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>212.52749114365784</v>
+      </c>
+      <c r="B301">
+        <v>12</v>
+      </c>
+      <c r="C301">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>213.38661032781107</v>
+      </c>
+      <c r="B302">
+        <v>13</v>
+      </c>
+      <c r="C302">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>213.55946298907298</v>
+      </c>
+      <c r="B303">
+        <v>14</v>
+      </c>
+      <c r="C303">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>213.296426330631</v>
+      </c>
+      <c r="B304">
+        <v>15</v>
+      </c>
+      <c r="C304">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>212.59750035248504</v>
+      </c>
+      <c r="B305">
+        <v>16</v>
+      </c>
+      <c r="C305">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>211.8286600257069</v>
+      </c>
+      <c r="B306">
+        <v>17</v>
+      </c>
+      <c r="C306">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>211.12996465295626</v>
+      </c>
+      <c r="B307">
+        <v>18</v>
+      </c>
+      <c r="C307">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
+        <v>210.07065231362463</v>
+      </c>
+      <c r="B308">
+        <v>19</v>
+      </c>
+      <c r="C308">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309">
+        <v>208.65072300771203</v>
+      </c>
+      <c r="B309">
+        <v>20</v>
+      </c>
+      <c r="C309">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>208.74578643898653</v>
+      </c>
+      <c r="B310">
+        <v>21</v>
+      </c>
+      <c r="C310">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>207.31547652048567</v>
+      </c>
+      <c r="B311">
+        <v>22</v>
+      </c>
+      <c r="C311">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>204.03484504074956</v>
+      </c>
+      <c r="B312">
+        <v>23</v>
+      </c>
+      <c r="C312">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313">
+        <v>198.90389199977824</v>
+      </c>
+      <c r="B313">
+        <v>24</v>
+      </c>
+      <c r="C313">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>193.18460232386875</v>
+      </c>
+      <c r="B314">
+        <v>25</v>
+      </c>
+      <c r="C314">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315">
+        <v>188.06922796825137</v>
+      </c>
+      <c r="B315">
+        <v>26</v>
+      </c>
+      <c r="C315">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316">
+        <v>181.8523128221913</v>
+      </c>
+      <c r="B316">
+        <v>27</v>
+      </c>
+      <c r="C316">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>174.53385688568858</v>
+      </c>
+      <c r="B317">
+        <v>28</v>
+      </c>
+      <c r="C317">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318">
+        <v>165.98604122965642</v>
+      </c>
+      <c r="B318">
+        <v>29</v>
+      </c>
+      <c r="C318">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>158.7213902350814</v>
+      </c>
+      <c r="B319">
+        <v>30</v>
+      </c>
+      <c r="C319">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>151.6776745027125</v>
+      </c>
+      <c r="B320">
+        <v>31</v>
+      </c>
+      <c r="C320">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321">
+        <v>144.85489403254974</v>
+      </c>
+      <c r="B321">
+        <v>32</v>
+      </c>
+      <c r="C321">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>140.75699776219605</v>
+      </c>
+      <c r="B322">
+        <v>33</v>
+      </c>
+      <c r="C322">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323">
+        <v>133.7995291660451</v>
+      </c>
+      <c r="B323">
+        <v>34</v>
+      </c>
+      <c r="C323">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324">
+        <v>124.50126570192454</v>
+      </c>
+      <c r="B324">
+        <v>35</v>
+      </c>
+      <c r="C324">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325">
+        <v>112.86220736983442</v>
+      </c>
+      <c r="B325">
+        <v>36</v>
+      </c>
+      <c r="C325">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326">
+        <v>100.72746119733924</v>
+      </c>
+      <c r="B326">
+        <v>37</v>
+      </c>
+      <c r="C326">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327">
+        <v>89.14539911308202</v>
+      </c>
+      <c r="B327">
+        <v>38</v>
+      </c>
+      <c r="C327">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328">
+        <v>76.46896895787138</v>
+      </c>
+      <c r="B328">
+        <v>39</v>
+      </c>
+      <c r="C328">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>62.6981707317073</v>
+      </c>
+      <c r="B329">
+        <v>40</v>
+      </c>
+      <c r="C329">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>42.84322003577818</v>
+      </c>
+      <c r="B330">
+        <v>41</v>
+      </c>
+      <c r="C330">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331">
+        <v>30.784830053667264</v>
+      </c>
+      <c r="B331">
+        <v>42</v>
+      </c>
+      <c r="C331">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>21.870805008944544</v>
+      </c>
+      <c r="B332">
+        <v>43</v>
+      </c>
+      <c r="C332">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333">
+        <v>16.10114490161002</v>
+      </c>
+      <c r="B333">
+        <v>44</v>
+      </c>
+      <c r="C333">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334">
+        <v>4.359918276374443</v>
+      </c>
+      <c r="B334">
+        <v>45</v>
+      </c>
+      <c r="C334">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>1.9251040118870726</v>
+      </c>
+      <c r="B335">
+        <v>46</v>
+      </c>
+      <c r="C335">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336">
+        <v>0.672592867756315</v>
+      </c>
+      <c r="B336">
+        <v>47</v>
+      </c>
+      <c r="C336">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337">
+        <v>0.6023848439821694</v>
+      </c>
+      <c r="B337">
+        <v>48</v>
+      </c>
+      <c r="C337">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338">
+        <v>1.430662251655629</v>
+      </c>
+      <c r="B338">
+        <v>49</v>
+      </c>
+      <c r="C338">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339">
+        <v>1.2419205298013245</v>
+      </c>
+      <c r="B339">
+        <v>50</v>
+      </c>
+      <c r="C339">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340">
+        <v>1.0456291390728476</v>
+      </c>
+      <c r="B340">
+        <v>51</v>
+      </c>
+      <c r="C340">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341">
+        <v>0.8417880794701986</v>
+      </c>
+      <c r="B341">
+        <v>52</v>
+      </c>
+      <c r="C341">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342">
+        <v>0.53625</v>
+      </c>
+      <c r="B342">
+        <v>53</v>
+      </c>
+      <c r="C342">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343">
+        <v>0.3649038461538462</v>
+      </c>
+      <c r="B343">
+        <v>54</v>
+      </c>
+      <c r="C343">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344">
+        <v>0.24432692307692308</v>
+      </c>
+      <c r="B344">
+        <v>55</v>
+      </c>
+      <c r="C344">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345">
+        <v>0.1745192307692308</v>
+      </c>
+      <c r="B345">
+        <v>56</v>
+      </c>
+      <c r="C345">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346">
+        <v>0.0</v>
+      </c>
+      <c r="B346">
+        <v>57</v>
+      </c>
+      <c r="C346">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347">
+        <v>0.0</v>
+      </c>
+      <c r="B347">
+        <v>58</v>
+      </c>
+      <c r="C347">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>0.0</v>
+      </c>
+      <c r="B348">
+        <v>59</v>
+      </c>
+      <c r="C348">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349">
+        <v>0.0</v>
+      </c>
+      <c r="B349">
+        <v>60</v>
+      </c>
+      <c r="C349">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350">
+        <v>0.0</v>
+      </c>
+      <c r="B350">
+        <v>61</v>
+      </c>
+      <c r="C350">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351">
+        <v>0.0</v>
+      </c>
+      <c r="B351">
+        <v>62</v>
+      </c>
+      <c r="C351">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352">
+        <v>0.0</v>
+      </c>
+      <c r="B352">
+        <v>63</v>
+      </c>
+      <c r="C352">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353">
+        <v>0.0</v>
+      </c>
+      <c r="B353">
+        <v>64</v>
+      </c>
+      <c r="C353">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354">
+        <v>0.0043130990415335465</v>
+      </c>
+      <c r="B354">
+        <v>65</v>
+      </c>
+      <c r="C354">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355">
+        <v>0.006038338658146965</v>
+      </c>
+      <c r="B355">
+        <v>66</v>
+      </c>
+      <c r="C355">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356">
+        <v>0.2708626198083067</v>
+      </c>
+      <c r="B356">
+        <v>67</v>
+      </c>
+      <c r="C356">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357">
+        <v>0.7987859424920127</v>
+      </c>
+      <c r="B357">
+        <v>68</v>
+      </c>
+      <c r="C357">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358">
+        <v>59.39963657071857</v>
+      </c>
+      <c r="B358">
+        <v>69</v>
+      </c>
+      <c r="C358">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359">
+        <v>83.03590287844274</v>
+      </c>
+      <c r="B359">
+        <v>70</v>
+      </c>
+      <c r="C359">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360">
+        <v>94.70813315386208</v>
+      </c>
+      <c r="B360">
+        <v>71</v>
+      </c>
+      <c r="C360">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361">
+        <v>94.41632739697658</v>
+      </c>
+      <c r="B361">
+        <v>72</v>
+      </c>
+      <c r="C361">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
+        <v>79.48198911167175</v>
+      </c>
+      <c r="B362">
+        <v>73</v>
+      </c>
+      <c r="C362">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363">
+        <v>79.23557827645729</v>
+      </c>
+      <c r="B363">
+        <v>74</v>
+      </c>
+      <c r="C363">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364">
+        <v>81.74679458239277</v>
+      </c>
+      <c r="B364">
+        <v>75</v>
+      </c>
+      <c r="C364">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365">
+        <v>87.01563802947815</v>
+      </c>
+      <c r="B365">
+        <v>76</v>
+      </c>
+      <c r="C365">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366">
+        <v>95.7297715901675</v>
+      </c>
+      <c r="B366">
+        <v>77</v>
+      </c>
+      <c r="C366">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367">
+        <v>101.19531868609964</v>
+      </c>
+      <c r="B367">
+        <v>78</v>
+      </c>
+      <c r="C367">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>106.41277354796607</v>
+      </c>
+      <c r="B368">
+        <v>79</v>
+      </c>
+      <c r="C368">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>111.38213617576682</v>
+      </c>
+      <c r="B369">
+        <v>80</v>
+      </c>
+      <c r="C369">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
+        <v>119.75332132564839</v>
+      </c>
+      <c r="B370">
+        <v>81</v>
+      </c>
+      <c r="C370">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>124.86797550432276</v>
+      </c>
+      <c r="B371">
+        <v>82</v>
+      </c>
+      <c r="C371">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>126.06732708933716</v>
+      </c>
+      <c r="B372">
+        <v>83</v>
+      </c>
+      <c r="C372">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <v>123.35137608069164</v>
+      </c>
+      <c r="B373">
+        <v>84</v>
+      </c>
+      <c r="C373">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>108.97820268514508</v>
+      </c>
+      <c r="B374">
+        <v>85</v>
+      </c>
+      <c r="C374">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>106.5246990038978</v>
+      </c>
+      <c r="B375">
+        <v>86</v>
+      </c>
+      <c r="C375">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376">
+        <v>111.75324815937635</v>
+      </c>
+      <c r="B376">
+        <v>87</v>
+      </c>
+      <c r="C376">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377">
+        <v>124.66385015158076</v>
+      </c>
+      <c r="B377">
+        <v>88</v>
+      </c>
+      <c r="C377">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>153.68984348914856</v>
+      </c>
+      <c r="B378">
+        <v>89</v>
+      </c>
+      <c r="C378">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379">
+        <v>168.11278589315526</v>
+      </c>
+      <c r="B379">
+        <v>90</v>
+      </c>
+      <c r="C379">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380">
+        <v>175.60147120200332</v>
+      </c>
+      <c r="B380">
+        <v>91</v>
+      </c>
+      <c r="C380">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381">
+        <v>176.1558994156928</v>
+      </c>
+      <c r="B381">
+        <v>92</v>
+      </c>
+      <c r="C381">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <v>169.72125</v>
+      </c>
+      <c r="B382">
+        <v>93</v>
+      </c>
+      <c r="C382">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383">
+        <v>170.25374999999997</v>
+      </c>
+      <c r="B383">
+        <v>94</v>
+      </c>
+      <c r="C383">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384">
+        <v>170.78625</v>
+      </c>
+      <c r="B384">
+        <v>95</v>
+      </c>
+      <c r="C384">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>171.31874999999997</v>
+      </c>
+      <c r="B385">
+        <v>96</v>
+      </c>
+      <c r="C385">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
